--- a/mavenproject/amazon_excel.xlsx
+++ b/mavenproject/amazon_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Number</t>
   </si>
@@ -27,22 +27,16 @@
   <si>
     <t>shonu@556</t>
   </si>
-  <si>
-    <t>8179404966</t>
-  </si>
-  <si>
-    <t>sun@34567</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,59 +56,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,14 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -151,6 +145,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -159,6 +161,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -174,24 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,31 +200,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,145 +362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,17 +394,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,20 +477,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,127 +513,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,13 +961,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7777777777778" style="1" customWidth="1"/>
@@ -995,21 +989,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="shonu@556"/>
-    <hyperlink ref="B3" r:id="rId2" display="sun@34567"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
